--- a/TestMNIST/MatlabCodes/weight_3_tot.xlsx
+++ b/TestMNIST/MatlabCodes/weight_3_tot.xlsx
@@ -411,606 +411,606 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-11.413555969822051</v>
+        <v>-8.5027979459025147</v>
       </c>
       <c r="B1">
-        <v>-9.1351840783258549</v>
+        <v>-7.9005035341938283</v>
       </c>
       <c r="C1">
-        <v>-7.6030331110880418</v>
+        <v>-10.318909289399613</v>
       </c>
       <c r="D1">
-        <v>-7.3465762455004073</v>
+        <v>-17.065488032827023</v>
       </c>
       <c r="E1">
-        <v>-8.5908016688612019</v>
+        <v>-10.387075778692937</v>
       </c>
       <c r="F1">
-        <v>-7.6460228654738742</v>
+        <v>-7.8040668420551693</v>
       </c>
       <c r="G1">
-        <v>-5.9876083352100471</v>
+        <v>-8.611666673787381</v>
       </c>
       <c r="H1">
-        <v>-10.259101447401731</v>
+        <v>-9.4126301369939078</v>
       </c>
       <c r="I1">
-        <v>-7.3124121546404854</v>
+        <v>-9.6600555311235734</v>
       </c>
       <c r="J1">
-        <v>-11.197717435709446</v>
+        <v>-8.5039312075102167</v>
       </c>
       <c r="K1">
-        <v>-6.8633010756292583</v>
+        <v>-15.563337054149205</v>
       </c>
       <c r="L1">
-        <v>-9.269562856532648</v>
+        <v>-8.4848063598336871</v>
       </c>
       <c r="M1">
-        <v>-12.565815366531014</v>
+        <v>-12.137290610967435</v>
       </c>
       <c r="N1">
-        <v>-7.9448270089078949</v>
+        <v>-9.0547490243011541</v>
       </c>
       <c r="O1">
-        <v>-10.902661733016785</v>
+        <v>-11.694034329364168</v>
       </c>
       <c r="P1">
-        <v>-9.3500234580500674</v>
+        <v>-9.8220101425661852</v>
       </c>
       <c r="Q1">
-        <v>-10.409085671432495</v>
+        <v>-8.5927406695942459</v>
       </c>
       <c r="R1">
-        <v>-9.3659337752042564</v>
+        <v>-9.9168666754148767</v>
       </c>
       <c r="S1">
-        <v>-7.1613142184161944</v>
+        <v>-10.984637576014704</v>
       </c>
       <c r="T1">
-        <v>-10.044154534696123</v>
+        <v>-7.709814212591227</v>
       </c>
       <c r="U1">
-        <v>-7.6375183219605391</v>
+        <v>-7.337428974937434</v>
       </c>
       <c r="V1">
-        <v>-11.21331443137381</v>
+        <v>-7.347942730991571</v>
       </c>
       <c r="W1">
-        <v>-8.585836809728665</v>
+        <v>-8.7448267011052785</v>
       </c>
       <c r="X1">
-        <v>-9.1983528142275297</v>
+        <v>-8.1593341918530911</v>
       </c>
       <c r="Y1">
-        <v>-12.493129194849542</v>
+        <v>-9.2404798601130906</v>
       </c>
       <c r="Z1">
-        <v>-9.1325069550785116</v>
+        <v>-7.7491814070169527</v>
       </c>
       <c r="AA1">
-        <v>-9.999281333208522</v>
+        <v>-8.4905371128445903</v>
       </c>
       <c r="AB1">
-        <v>-8.5779607113635485</v>
+        <v>-12.819274273468421</v>
       </c>
       <c r="AC1">
-        <v>-9.0640842956672056</v>
+        <v>-7.8533143801379994</v>
       </c>
       <c r="AD1">
-        <v>-9.4597729491281211</v>
+        <v>-13.037404774714156</v>
       </c>
       <c r="AE1">
-        <v>-10.348435875437632</v>
+        <v>-10.714499405569468</v>
       </c>
       <c r="AF1">
-        <v>-9.2411912393141051</v>
+        <v>-7.169921157353504</v>
       </c>
       <c r="AG1">
-        <v>-8.0062455722388535</v>
+        <v>-11.975798081783259</v>
       </c>
       <c r="AH1">
-        <v>-7.6011806887723958</v>
+        <v>-8.8914026735732499</v>
       </c>
       <c r="AI1">
-        <v>-8.9842210828520397</v>
+        <v>-9.5252696271530439</v>
       </c>
       <c r="AJ1">
-        <v>-19.646732572887757</v>
+        <v>-10.901006427368637</v>
       </c>
       <c r="AK1">
-        <v>-8.3804751763341248</v>
+        <v>-9.1771084613994507</v>
       </c>
       <c r="AL1">
-        <v>-8.018919187305503</v>
+        <v>-10.064113850840329</v>
       </c>
       <c r="AM1">
-        <v>-9.424061446962412</v>
+        <v>-9.5254933030077265</v>
       </c>
       <c r="AN1">
-        <v>-8.7581975351246175</v>
+        <v>-9.597385068813379</v>
       </c>
       <c r="AO1">
-        <v>-12.273353432909534</v>
+        <v>-9.56618542480971</v>
       </c>
       <c r="AP1">
-        <v>-13.582550746017528</v>
+        <v>-8.6568647354278134</v>
       </c>
       <c r="AQ1">
-        <v>-7.3765982726634309</v>
+        <v>-9.8862944619730531</v>
       </c>
       <c r="AR1">
-        <v>-11.116722825837053</v>
+        <v>-12.037671003491839</v>
       </c>
       <c r="AS1">
-        <v>-8.7079476552114077</v>
+        <v>-8.077568918913471</v>
       </c>
       <c r="AT1">
-        <v>-9.8812463776159341</v>
+        <v>-8.8502601036849278</v>
       </c>
       <c r="AU1">
-        <v>-8.335275458602176</v>
+        <v>-8.9733312742911995</v>
       </c>
       <c r="AV1">
-        <v>-7.9856758359409108</v>
+        <v>-7.6208286827174199</v>
       </c>
       <c r="AW1">
-        <v>-7.5406964052008734</v>
+        <v>-12.964057415181925</v>
       </c>
       <c r="AX1">
-        <v>-13.394075803991186</v>
+        <v>-8.8908861662947896</v>
       </c>
       <c r="AY1">
-        <v>-12.698253137062087</v>
+        <v>-12.160402915218267</v>
       </c>
       <c r="AZ1">
-        <v>-11.29061373542469</v>
+        <v>-9.94154650321601</v>
       </c>
       <c r="BA1">
-        <v>-8.5470528886127752</v>
+        <v>-8.6531966846780932</v>
       </c>
       <c r="BB1">
-        <v>-7.9096422506441222</v>
+        <v>-10.173497377880368</v>
       </c>
       <c r="BC1">
-        <v>-10.779869476187221</v>
+        <v>-13.625364101004836</v>
       </c>
       <c r="BD1">
-        <v>-8.9227088157050947</v>
+        <v>-11.429364422369915</v>
       </c>
       <c r="BE1">
-        <v>-11.060492176575755</v>
+        <v>-9.1834277332688963</v>
       </c>
       <c r="BF1">
-        <v>-10.433826942630144</v>
+        <v>-9.3662429501638247</v>
       </c>
       <c r="BG1">
-        <v>-7.7458814530966729</v>
+        <v>-8.0208282415358507</v>
       </c>
       <c r="BH1">
-        <v>-7.9420574341909145</v>
+        <v>-13.910305551863209</v>
       </c>
       <c r="BI1">
-        <v>-7.6736575452790543</v>
+        <v>-7.136018365531549</v>
       </c>
       <c r="BJ1">
-        <v>-9.0482214348351118</v>
+        <v>-8.4272270768233515</v>
       </c>
       <c r="BK1">
-        <v>-12.723248282566377</v>
+        <v>-10.983037927536399</v>
       </c>
       <c r="BL1">
-        <v>-7.5647607761805187</v>
+        <v>-9.0783476168401904</v>
       </c>
       <c r="BM1">
-        <v>-8.5653694189865437</v>
+        <v>-12.248573880606244</v>
       </c>
       <c r="BN1">
-        <v>-9.6526149414914215</v>
+        <v>-7.9424120992298812</v>
       </c>
       <c r="BO1">
-        <v>-10.331390019723667</v>
+        <v>-8.3590542072904039</v>
       </c>
       <c r="BP1">
-        <v>-7.059900365139292</v>
+        <v>-11.156768611735572</v>
       </c>
       <c r="BQ1">
-        <v>-8.1834228659994075</v>
+        <v>-8.1975140261739146</v>
       </c>
       <c r="BR1">
-        <v>-14.737750106687699</v>
+        <v>-10.671045867442468</v>
       </c>
       <c r="BS1">
-        <v>-7.4476805012571221</v>
+        <v>-8.0482698522182989</v>
       </c>
       <c r="BT1">
-        <v>-7.3605993853064859</v>
+        <v>-7.4325269519806296</v>
       </c>
       <c r="BU1">
-        <v>-13.089881326855664</v>
+        <v>-8.1915861032938633</v>
       </c>
       <c r="BV1">
-        <v>-8.0368679773504184</v>
+        <v>-10.290314527176747</v>
       </c>
       <c r="BW1">
-        <v>-8.4889647127238597</v>
+        <v>-9.3882999617092349</v>
       </c>
       <c r="BX1">
-        <v>-7.2305712219085994</v>
+        <v>-9.8063375245711182</v>
       </c>
       <c r="BY1">
-        <v>-9.1188000003516141</v>
+        <v>-8.6684769109030242</v>
       </c>
       <c r="BZ1">
-        <v>-14.558877252531266</v>
+        <v>-8.5579118957599771</v>
       </c>
       <c r="CA1">
-        <v>-16.235119011692216</v>
+        <v>-13.760413663186975</v>
       </c>
       <c r="CB1">
-        <v>-7.0377980585700994</v>
+        <v>-8.0743307413300709</v>
       </c>
       <c r="CC1">
-        <v>-7.0567303564832216</v>
+        <v>-7.8618507396980846</v>
       </c>
       <c r="CD1">
-        <v>-7.4181855300053945</v>
+        <v>-17.106835836772852</v>
       </c>
       <c r="CE1">
-        <v>-8.2385797015621289</v>
+        <v>-7.7441934213394585</v>
       </c>
       <c r="CF1">
-        <v>-9.9629779381717878</v>
+        <v>-6.8707472157951113</v>
       </c>
       <c r="CG1">
-        <v>-8.9151477559925425</v>
+        <v>-8.3648655470182245</v>
       </c>
       <c r="CH1">
-        <v>-9.5390180268802389</v>
+        <v>-8.7844540185149178</v>
       </c>
       <c r="CI1">
-        <v>-10.468784043560177</v>
+        <v>-13.748142954373503</v>
       </c>
       <c r="CJ1">
-        <v>-8.0492339758702478</v>
+        <v>-14.926683418740831</v>
       </c>
       <c r="CK1">
-        <v>-9.7558635438449475</v>
+        <v>-9.1018937270407623</v>
       </c>
       <c r="CL1">
-        <v>-12.200401221004389</v>
+        <v>-10.664899842278389</v>
       </c>
       <c r="CM1">
-        <v>-10.114353431586029</v>
+        <v>-9.6413022081032675</v>
       </c>
       <c r="CN1">
-        <v>-12.011202822694715</v>
+        <v>-8.3066664838997326</v>
       </c>
       <c r="CO1">
-        <v>-8.6342887371495944</v>
+        <v>-12.038628282745353</v>
       </c>
       <c r="CP1">
-        <v>-8.4191773627529987</v>
+        <v>-8.8429855324554136</v>
       </c>
       <c r="CQ1">
-        <v>-11.002889523897498</v>
+        <v>-8.0745461086976711</v>
       </c>
       <c r="CR1">
-        <v>-8.2891757840044189</v>
+        <v>-9.6967706661314743</v>
       </c>
       <c r="CS1">
-        <v>-8.065427768320113</v>
+        <v>-8.4784011465475881</v>
       </c>
       <c r="CT1">
-        <v>-8.2531737564779721</v>
+        <v>-8.1759850459632268</v>
       </c>
       <c r="CU1">
-        <v>-10.893171285769274</v>
+        <v>-12.352524315318298</v>
       </c>
       <c r="CV1">
-        <v>-10.456996657254601</v>
+        <v>-9.2533255093138891</v>
       </c>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-11.559077275538019</v>
+        <v>-7.0544416896007984</v>
       </c>
       <c r="B2">
-        <v>-9.1950336173155556</v>
+        <v>-8.3723429635618309</v>
       </c>
       <c r="C2">
-        <v>-7.7023916378793658</v>
+        <v>-9.7578121545372962</v>
       </c>
       <c r="D2">
-        <v>-7.4240652497731148</v>
+        <v>-15.197018984563766</v>
       </c>
       <c r="E2">
-        <v>-8.6899327337147803</v>
+        <v>-8.8421868775263679</v>
       </c>
       <c r="F2">
-        <v>-7.67914357904107</v>
+        <v>-7.2991155523763878</v>
       </c>
       <c r="G2">
-        <v>-7.0376503651570905</v>
+        <v>-8.1771748086211833</v>
       </c>
       <c r="H2">
-        <v>-10.319544485606734</v>
+        <v>-8.9280921073815183</v>
       </c>
       <c r="I2">
-        <v>-7.3145844193643947</v>
+        <v>-9.1326893233370292</v>
       </c>
       <c r="J2">
-        <v>-10.306916947570331</v>
+        <v>-8.0314468244242221</v>
       </c>
       <c r="K2">
-        <v>-5.9264208330568184</v>
+        <v>-14.792285522663523</v>
       </c>
       <c r="L2">
-        <v>-10.279733777054608</v>
+        <v>-8.9628233366257888</v>
       </c>
       <c r="M2">
-        <v>-13.638330994525781</v>
+        <v>-10.520447817632274</v>
       </c>
       <c r="N2">
-        <v>-8.0495913403485009</v>
+        <v>-8.510254150981174</v>
       </c>
       <c r="O2">
-        <v>-10.997376223299176</v>
+        <v>-11.062080871808927</v>
       </c>
       <c r="P2">
-        <v>-9.4677119207745051</v>
+        <v>-9.3797912805248256</v>
       </c>
       <c r="Q2">
-        <v>-11.509807921672797</v>
+        <v>-8.1652376741880737</v>
       </c>
       <c r="R2">
-        <v>-9.4551428082838989</v>
+        <v>-9.3758787670459327</v>
       </c>
       <c r="S2">
-        <v>-7.1533715895654595</v>
+        <v>-10.508921548679</v>
       </c>
       <c r="T2">
-        <v>-10.159966943537761</v>
+        <v>-6.3210829016517724</v>
       </c>
       <c r="U2">
-        <v>-6.6707533714740741</v>
+        <v>-7.8866935168505181</v>
       </c>
       <c r="V2">
-        <v>-11.335948305599972</v>
+        <v>-7.86429920340266</v>
       </c>
       <c r="W2">
-        <v>-8.6338173876012618</v>
+        <v>-8.2462857957348827</v>
       </c>
       <c r="X2">
-        <v>-9.2513985413864628</v>
+        <v>-7.7048271843325704</v>
       </c>
       <c r="Y2">
-        <v>-12.589176303977473</v>
+        <v>-8.7381773865475676</v>
       </c>
       <c r="Z2">
-        <v>-9.1965404672237039</v>
+        <v>-7.3388947966742482</v>
       </c>
       <c r="AA2">
-        <v>-9.1981311518116708</v>
+        <v>-8.0526805559421106</v>
       </c>
       <c r="AB2">
-        <v>-8.6566222293653947</v>
+        <v>-12.173367771768945</v>
       </c>
       <c r="AC2">
-        <v>-9.1285389852266423</v>
+        <v>-8.2889673440528266</v>
       </c>
       <c r="AD2">
-        <v>-8.5491336434591023</v>
+        <v>-12.398800368111779</v>
       </c>
       <c r="AE2">
-        <v>-10.458103049038023</v>
+        <v>-10.160965039623134</v>
       </c>
       <c r="AF2">
-        <v>-10.300889296789368</v>
+        <v>-7.6871147589545439</v>
       </c>
       <c r="AG2">
-        <v>-7.0604911261133729</v>
+        <v>-10.341966154007562</v>
       </c>
       <c r="AH2">
-        <v>-7.6504752229713926</v>
+        <v>-8.3938911601397628</v>
       </c>
       <c r="AI2">
-        <v>-9.0657227400285194</v>
+        <v>-9.0324137738597958</v>
       </c>
       <c r="AJ2">
-        <v>-18.829563870302696</v>
+        <v>-9.2798933906241512</v>
       </c>
       <c r="AK2">
-        <v>-8.5717271899962189</v>
+        <v>-8.6729565639070323</v>
       </c>
       <c r="AL2">
-        <v>-7.0450942154921163</v>
+        <v>-9.5339057312027542</v>
       </c>
       <c r="AM2">
-        <v>-8.5084252963459139</v>
+        <v>-8.9920694058083761</v>
       </c>
       <c r="AN2">
-        <v>-8.7915026869766315</v>
+        <v>-9.1098366066006502</v>
       </c>
       <c r="AO2">
-        <v>-11.40817140968999</v>
+        <v>-9.0368600430538883</v>
       </c>
       <c r="AP2">
-        <v>-13.731160198517673</v>
+        <v>-8.1116117047771699</v>
       </c>
       <c r="AQ2">
-        <v>-7.4157651760845775</v>
+        <v>-10.337057782278997</v>
       </c>
       <c r="AR2">
-        <v>-10.252691778722935</v>
+        <v>-11.355347243055995</v>
       </c>
       <c r="AS2">
-        <v>-8.7268539486777836</v>
+        <v>-7.6393023728310521</v>
       </c>
       <c r="AT2">
-        <v>-10.985350440942238</v>
+        <v>-8.3253741979201692</v>
       </c>
       <c r="AU2">
-        <v>-9.4321103806051916</v>
+        <v>-8.4571943040885582</v>
       </c>
       <c r="AV2">
-        <v>-7.9901896602549014</v>
+        <v>-8.1886734258680907</v>
       </c>
       <c r="AW2">
-        <v>-6.5667335827124234</v>
+        <v>-12.26275600477803</v>
       </c>
       <c r="AX2">
-        <v>-12.5999180527677</v>
+        <v>-9.3329845321471243</v>
       </c>
       <c r="AY2">
-        <v>-12.906530066214774</v>
+        <v>-10.570001664877536</v>
       </c>
       <c r="AZ2">
-        <v>-10.374196574803353</v>
+        <v>-8.4194209921715437</v>
       </c>
       <c r="BA2">
-        <v>-8.6440494413468887</v>
+        <v>-8.1489828583714594</v>
       </c>
       <c r="BB2">
-        <v>-8.9675369793904807</v>
+        <v>-9.6333681823258051</v>
       </c>
       <c r="BC2">
-        <v>-10.924267340776181</v>
+        <v>-12.928172313343241</v>
       </c>
       <c r="BD2">
-        <v>-9.0032529899860023</v>
+        <v>-10.797533579415967</v>
       </c>
       <c r="BE2">
-        <v>-11.221641454153845</v>
+        <v>-8.730956594258096</v>
       </c>
       <c r="BF2">
-        <v>-9.5501764215637426</v>
+        <v>-8.8567925470474975</v>
       </c>
       <c r="BG2">
-        <v>-8.827286283924769</v>
+        <v>-7.5779634683864554</v>
       </c>
       <c r="BH2">
-        <v>-7.9805001424573501</v>
+        <v>-13.270663474750124</v>
       </c>
       <c r="BI2">
-        <v>-7.7701941190903012</v>
+        <v>-7.7559330593191227</v>
       </c>
       <c r="BJ2">
-        <v>-9.099174584261112</v>
+        <v>-7.9517277047454904</v>
       </c>
       <c r="BK2">
-        <v>-12.81076368347626</v>
+        <v>-10.334467370063306</v>
       </c>
       <c r="BL2">
-        <v>-7.5679734403692658</v>
+        <v>-7.5712210764763324</v>
       </c>
       <c r="BM2">
-        <v>-8.6513035427102469</v>
+        <v>-11.564831785916507</v>
       </c>
       <c r="BN2">
-        <v>-9.7389652651726983</v>
+        <v>-7.5319127144974987</v>
       </c>
       <c r="BO2">
-        <v>-9.5057233202587827</v>
+        <v>-7.8430906147727848</v>
       </c>
       <c r="BP2">
-        <v>-7.1164528920832737</v>
+        <v>-9.6281259732488245</v>
       </c>
       <c r="BQ2">
-        <v>-8.2871399856291283</v>
+        <v>-7.7437769162531502</v>
       </c>
       <c r="BR2">
-        <v>-14.947496621509798</v>
+        <v>-10.143728032285726</v>
       </c>
       <c r="BS2">
-        <v>-7.5489480728401066</v>
+        <v>-7.5877485413337435</v>
       </c>
       <c r="BT2">
-        <v>-7.4104599350503726</v>
+        <v>-8.0195016720958865</v>
       </c>
       <c r="BU2">
-        <v>-13.180757904476058</v>
+        <v>-6.695645773734908</v>
       </c>
       <c r="BV2">
-        <v>-7.120165486536834</v>
+        <v>-8.7639491167189263</v>
       </c>
       <c r="BW2">
-        <v>-8.564626906105584</v>
+        <v>-9.7756517839565422</v>
       </c>
       <c r="BX2">
-        <v>-8.3605629399815751</v>
+        <v>-9.2357781503405629</v>
       </c>
       <c r="BY2">
-        <v>-9.1886192944947833</v>
+        <v>-8.2898907102009094</v>
       </c>
       <c r="BZ2">
-        <v>-14.741849624175329</v>
+        <v>-8.0790943045891819</v>
       </c>
       <c r="CA2">
-        <v>-16.368282437440783</v>
+        <v>-12.092473449857044</v>
       </c>
       <c r="CB2">
-        <v>-7.0544352923933946</v>
+        <v>-7.6109915560507471</v>
       </c>
       <c r="CC2">
-        <v>-7.0566285817336816</v>
+        <v>-7.4410328637207108</v>
       </c>
       <c r="CD2">
-        <v>-7.4933112297246867</v>
+        <v>-16.236831111664749</v>
       </c>
       <c r="CE2">
-        <v>-8.2868795692240731</v>
+        <v>-7.3160221061232606</v>
       </c>
       <c r="CF2">
-        <v>-10.00067431759545</v>
+        <v>-7.4337192166621699</v>
       </c>
       <c r="CG2">
-        <v>-8.9512390550629952</v>
+        <v>-7.9062300112024184</v>
       </c>
       <c r="CH2">
-        <v>-9.6567925797929668</v>
+        <v>-8.2521370556780909</v>
       </c>
       <c r="CI2">
-        <v>-10.60327390015895</v>
+        <v>-12.102817010451753</v>
       </c>
       <c r="CJ2">
-        <v>-8.1346219073030941</v>
+        <v>-14.239173559716194</v>
       </c>
       <c r="CK2">
-        <v>-9.8904432617950899</v>
+        <v>-8.629129534454016</v>
       </c>
       <c r="CL2">
-        <v>-12.351081648235168</v>
+        <v>-9.1875184109107977</v>
       </c>
       <c r="CM2">
-        <v>-10.213303519534996</v>
+        <v>-9.1018369547112208</v>
       </c>
       <c r="CN2">
-        <v>-12.019154608258159</v>
+        <v>-7.80400145025295</v>
       </c>
       <c r="CO2">
-        <v>-8.6338408317587305</v>
+        <v>-11.319324821199917</v>
       </c>
       <c r="CP2">
-        <v>-8.4606731285637302</v>
+        <v>-8.3246287807546953</v>
       </c>
       <c r="CQ2">
-        <v>-11.119984796740107</v>
+        <v>-7.5742574060898793</v>
       </c>
       <c r="CR2">
-        <v>-9.4230101450337003</v>
+        <v>-9.1641568269430458</v>
       </c>
       <c r="CS2">
-        <v>-9.1630279511085888</v>
+        <v>-8.0256967701764257</v>
       </c>
       <c r="CT2">
-        <v>-7.3554918384825507</v>
+        <v>-7.7188132083926551</v>
       </c>
       <c r="CU2">
-        <v>-11.021124597642972</v>
+        <v>-11.732681854748863</v>
       </c>
       <c r="CV2">
-        <v>-10.622891493485229</v>
+        <v>-8.6795576212226653</v>
       </c>
     </row>
   </sheetData>

--- a/TestMNIST/MatlabCodes/weight_3_tot.xlsx
+++ b/TestMNIST/MatlabCodes/weight_3_tot.xlsx
@@ -411,606 +411,606 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-8.5027979459025147</v>
+        <v>-7.7485238893292649</v>
       </c>
       <c r="B1">
-        <v>-7.9005035341938283</v>
+        <v>-10.058302344363842</v>
       </c>
       <c r="C1">
-        <v>-10.318909289399613</v>
+        <v>-9.5263052770501435</v>
       </c>
       <c r="D1">
-        <v>-17.065488032827023</v>
+        <v>-8.5449785608432194</v>
       </c>
       <c r="E1">
-        <v>-10.387075778692937</v>
+        <v>-9.920824158306301</v>
       </c>
       <c r="F1">
-        <v>-7.8040668420551693</v>
+        <v>-9.1988944491296465</v>
       </c>
       <c r="G1">
-        <v>-8.611666673787381</v>
+        <v>-9.3128764409803466</v>
       </c>
       <c r="H1">
-        <v>-9.4126301369939078</v>
+        <v>-7.5111190629002209</v>
       </c>
       <c r="I1">
-        <v>-9.6600555311235734</v>
+        <v>-9.0453737695867726</v>
       </c>
       <c r="J1">
-        <v>-8.5039312075102167</v>
+        <v>-9.2747545587574294</v>
       </c>
       <c r="K1">
-        <v>-15.563337054149205</v>
+        <v>-10.975855091450539</v>
       </c>
       <c r="L1">
-        <v>-8.4848063598336871</v>
+        <v>-9.0164502534922732</v>
       </c>
       <c r="M1">
-        <v>-12.137290610967435</v>
+        <v>-9.7598714724370588</v>
       </c>
       <c r="N1">
-        <v>-9.0547490243011541</v>
+        <v>-8.7505233023992375</v>
       </c>
       <c r="O1">
-        <v>-11.694034329364168</v>
+        <v>-9.3998620475760752</v>
       </c>
       <c r="P1">
-        <v>-9.8220101425661852</v>
+        <v>-9.7261872617058938</v>
       </c>
       <c r="Q1">
-        <v>-8.5927406695942459</v>
+        <v>-10.839508168100675</v>
       </c>
       <c r="R1">
-        <v>-9.9168666754148767</v>
+        <v>-10.150907641910214</v>
       </c>
       <c r="S1">
-        <v>-10.984637576014704</v>
+        <v>-8.4029552227210011</v>
       </c>
       <c r="T1">
-        <v>-7.709814212591227</v>
+        <v>-9.2923434298847312</v>
       </c>
       <c r="U1">
-        <v>-7.337428974937434</v>
+        <v>-9.2260890018487096</v>
       </c>
       <c r="V1">
-        <v>-7.347942730991571</v>
+        <v>-8.6590291824713894</v>
       </c>
       <c r="W1">
-        <v>-8.7448267011052785</v>
+        <v>-10.439517746934008</v>
       </c>
       <c r="X1">
-        <v>-8.1593341918530911</v>
+        <v>-7.7332097874381542</v>
       </c>
       <c r="Y1">
-        <v>-9.2404798601130906</v>
+        <v>-9.8373248721556319</v>
       </c>
       <c r="Z1">
-        <v>-7.7491814070169527</v>
+        <v>-9.375776072466719</v>
       </c>
       <c r="AA1">
-        <v>-8.4905371128445903</v>
+        <v>-10.038568136980441</v>
       </c>
       <c r="AB1">
-        <v>-12.819274273468421</v>
+        <v>-8.1148045724618907</v>
       </c>
       <c r="AC1">
-        <v>-7.8533143801379994</v>
+        <v>-9.5834841109292768</v>
       </c>
       <c r="AD1">
-        <v>-13.037404774714156</v>
+        <v>-8.8901534289369835</v>
       </c>
       <c r="AE1">
-        <v>-10.714499405569468</v>
+        <v>-9.9995435496820981</v>
       </c>
       <c r="AF1">
-        <v>-7.169921157353504</v>
+        <v>-10.08099416049701</v>
       </c>
       <c r="AG1">
-        <v>-11.975798081783259</v>
+        <v>-8.2715780353217436</v>
       </c>
       <c r="AH1">
-        <v>-8.8914026735732499</v>
+        <v>-9.1887604816239303</v>
       </c>
       <c r="AI1">
-        <v>-9.5252696271530439</v>
+        <v>-9.1107110459706018</v>
       </c>
       <c r="AJ1">
-        <v>-10.901006427368637</v>
+        <v>-8.2712542954937742</v>
       </c>
       <c r="AK1">
-        <v>-9.1771084613994507</v>
+        <v>-9.1950376990014835</v>
       </c>
       <c r="AL1">
-        <v>-10.064113850840329</v>
+        <v>-7.3252875667789166</v>
       </c>
       <c r="AM1">
-        <v>-9.5254933030077265</v>
+        <v>-9.8706672242725944</v>
       </c>
       <c r="AN1">
-        <v>-9.597385068813379</v>
+        <v>-10.737726399080485</v>
       </c>
       <c r="AO1">
-        <v>-9.56618542480971</v>
+        <v>-9.0635873765650672</v>
       </c>
       <c r="AP1">
-        <v>-8.6568647354278134</v>
+        <v>-10.626385074754621</v>
       </c>
       <c r="AQ1">
-        <v>-9.8862944619730531</v>
+        <v>-9.2113270394537548</v>
       </c>
       <c r="AR1">
-        <v>-12.037671003491839</v>
+        <v>-10.335617418531406</v>
       </c>
       <c r="AS1">
-        <v>-8.077568918913471</v>
+        <v>-8.9602472530969965</v>
       </c>
       <c r="AT1">
-        <v>-8.8502601036849278</v>
+        <v>-8.7420770522866889</v>
       </c>
       <c r="AU1">
-        <v>-8.9733312742911995</v>
+        <v>-9.842700943203873</v>
       </c>
       <c r="AV1">
-        <v>-7.6208286827174199</v>
+        <v>-10.034082776379865</v>
       </c>
       <c r="AW1">
-        <v>-12.964057415181925</v>
+        <v>-8.910350656420194</v>
       </c>
       <c r="AX1">
-        <v>-8.8908861662947896</v>
+        <v>-10.070888056171942</v>
       </c>
       <c r="AY1">
-        <v>-12.160402915218267</v>
+        <v>-9.2565056468499058</v>
       </c>
       <c r="AZ1">
-        <v>-9.94154650321601</v>
+        <v>-9.6006926735329152</v>
       </c>
       <c r="BA1">
-        <v>-8.6531966846780932</v>
+        <v>-8.6551904632578651</v>
       </c>
       <c r="BB1">
-        <v>-10.173497377880368</v>
+        <v>-8.7847934781795729</v>
       </c>
       <c r="BC1">
-        <v>-13.625364101004836</v>
+        <v>-8.8466299771534516</v>
       </c>
       <c r="BD1">
-        <v>-11.429364422369915</v>
+        <v>-9.7833364959127689</v>
       </c>
       <c r="BE1">
-        <v>-9.1834277332688963</v>
+        <v>-9.8828509695419342</v>
       </c>
       <c r="BF1">
-        <v>-9.3662429501638247</v>
+        <v>-10.064960424425914</v>
       </c>
       <c r="BG1">
-        <v>-8.0208282415358507</v>
+        <v>-8.7718411139923287</v>
       </c>
       <c r="BH1">
-        <v>-13.910305551863209</v>
+        <v>-9.1039068294630994</v>
       </c>
       <c r="BI1">
-        <v>-7.136018365531549</v>
+        <v>-10.406160938129252</v>
       </c>
       <c r="BJ1">
-        <v>-8.4272270768233515</v>
+        <v>-8.9650885076479678</v>
       </c>
       <c r="BK1">
-        <v>-10.983037927536399</v>
+        <v>-9.3295223237557519</v>
       </c>
       <c r="BL1">
-        <v>-9.0783476168401904</v>
+        <v>-8.1482207943170586</v>
       </c>
       <c r="BM1">
-        <v>-12.248573880606244</v>
+        <v>-10.782934916803718</v>
       </c>
       <c r="BN1">
-        <v>-7.9424120992298812</v>
+        <v>-9.8870751336462259</v>
       </c>
       <c r="BO1">
-        <v>-8.3590542072904039</v>
+        <v>-10.243906551811561</v>
       </c>
       <c r="BP1">
-        <v>-11.156768611735572</v>
+        <v>-9.243340797262114</v>
       </c>
       <c r="BQ1">
-        <v>-8.1975140261739146</v>
+        <v>-8.5169651411890293</v>
       </c>
       <c r="BR1">
-        <v>-10.671045867442468</v>
+        <v>-10.021694032859189</v>
       </c>
       <c r="BS1">
-        <v>-8.0482698522182989</v>
+        <v>-9.5841761834975827</v>
       </c>
       <c r="BT1">
-        <v>-7.4325269519806296</v>
+        <v>-7.8439711082880219</v>
       </c>
       <c r="BU1">
-        <v>-8.1915861032938633</v>
+        <v>-9.1944009196877712</v>
       </c>
       <c r="BV1">
-        <v>-10.290314527176747</v>
+        <v>-8.3231380297072874</v>
       </c>
       <c r="BW1">
-        <v>-9.3882999617092349</v>
+        <v>-9.749136138772327</v>
       </c>
       <c r="BX1">
-        <v>-9.8063375245711182</v>
+        <v>-9.6995937031137043</v>
       </c>
       <c r="BY1">
-        <v>-8.6684769109030242</v>
+        <v>-9.9923344655389084</v>
       </c>
       <c r="BZ1">
-        <v>-8.5579118957599771</v>
+        <v>-9.4842759835411403</v>
       </c>
       <c r="CA1">
-        <v>-13.760413663186975</v>
+        <v>-9.077365845149318</v>
       </c>
       <c r="CB1">
-        <v>-8.0743307413300709</v>
+        <v>-9.2604287991857781</v>
       </c>
       <c r="CC1">
-        <v>-7.8618507396980846</v>
+        <v>-8.8965214428248167</v>
       </c>
       <c r="CD1">
-        <v>-17.106835836772852</v>
+        <v>-10.314259408154101</v>
       </c>
       <c r="CE1">
-        <v>-7.7441934213394585</v>
+        <v>-9.3207673860724878</v>
       </c>
       <c r="CF1">
-        <v>-6.8707472157951113</v>
+        <v>-9.8956171785126816</v>
       </c>
       <c r="CG1">
-        <v>-8.3648655470182245</v>
+        <v>-9.2754888051946907</v>
       </c>
       <c r="CH1">
-        <v>-8.7844540185149178</v>
+        <v>-10.175457574867924</v>
       </c>
       <c r="CI1">
-        <v>-13.748142954373503</v>
+        <v>-9.64477538824978</v>
       </c>
       <c r="CJ1">
-        <v>-14.926683418740831</v>
+        <v>-8.2249126939601034</v>
       </c>
       <c r="CK1">
-        <v>-9.1018937270407623</v>
+        <v>-8.6694184968811214</v>
       </c>
       <c r="CL1">
-        <v>-10.664899842278389</v>
+        <v>-11.051599776382542</v>
       </c>
       <c r="CM1">
-        <v>-9.6413022081032675</v>
+        <v>-8.9651210134971322</v>
       </c>
       <c r="CN1">
-        <v>-8.3066664838997326</v>
+        <v>-10.0959138141742</v>
       </c>
       <c r="CO1">
-        <v>-12.038628282745353</v>
+        <v>-9.8827230756280215</v>
       </c>
       <c r="CP1">
-        <v>-8.8429855324554136</v>
+        <v>-9.4740059239766996</v>
       </c>
       <c r="CQ1">
-        <v>-8.0745461086976711</v>
+        <v>-11.397181003820984</v>
       </c>
       <c r="CR1">
-        <v>-9.6967706661314743</v>
+        <v>-9.8888803748189193</v>
       </c>
       <c r="CS1">
-        <v>-8.4784011465475881</v>
+        <v>-10.459304787787126</v>
       </c>
       <c r="CT1">
-        <v>-8.1759850459632268</v>
+        <v>-9.13082640027568</v>
       </c>
       <c r="CU1">
-        <v>-12.352524315318298</v>
+        <v>-9.9922637631551225</v>
       </c>
       <c r="CV1">
-        <v>-9.2533255093138891</v>
+        <v>-9.7410848830942491</v>
       </c>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-7.0544416896007984</v>
+        <v>-8.7512396780504655</v>
       </c>
       <c r="B2">
-        <v>-8.3723429635618309</v>
+        <v>-10.093300817211956</v>
       </c>
       <c r="C2">
-        <v>-9.7578121545372962</v>
+        <v>-9.5918708721713202</v>
       </c>
       <c r="D2">
-        <v>-15.197018984563766</v>
+        <v>-8.6437257758507133</v>
       </c>
       <c r="E2">
-        <v>-8.8421868775263679</v>
+        <v>-10.045208058728774</v>
       </c>
       <c r="F2">
-        <v>-7.2991155523763878</v>
+        <v>-9.240915448424408</v>
       </c>
       <c r="G2">
-        <v>-8.1771748086211833</v>
+        <v>-9.3244535705605642</v>
       </c>
       <c r="H2">
-        <v>-8.9280921073815183</v>
+        <v>-8.6060544885983425</v>
       </c>
       <c r="I2">
-        <v>-9.1326893233370292</v>
+        <v>-9.1057338468491142</v>
       </c>
       <c r="J2">
-        <v>-8.0314468244242221</v>
+        <v>-9.2394332287112935</v>
       </c>
       <c r="K2">
-        <v>-14.792285522663523</v>
+        <v>-9.9525012810210143</v>
       </c>
       <c r="L2">
-        <v>-8.9628233366257888</v>
+        <v>-9.06206755324237</v>
       </c>
       <c r="M2">
-        <v>-10.520447817632274</v>
+        <v>-9.8533309774453031</v>
       </c>
       <c r="N2">
-        <v>-8.510254150981174</v>
+        <v>-8.766000948187239</v>
       </c>
       <c r="O2">
-        <v>-11.062080871808927</v>
+        <v>-9.4534664446430217</v>
       </c>
       <c r="P2">
-        <v>-9.3797912805248256</v>
+        <v>-8.8058706654814056</v>
       </c>
       <c r="Q2">
-        <v>-8.1652376741880737</v>
+        <v>-10.839965486665919</v>
       </c>
       <c r="R2">
-        <v>-9.3758787670459327</v>
+        <v>-10.138108524780472</v>
       </c>
       <c r="S2">
-        <v>-10.508921548679</v>
+        <v>-9.3507768516489946</v>
       </c>
       <c r="T2">
-        <v>-6.3210829016517724</v>
+        <v>-9.2312504496524994</v>
       </c>
       <c r="U2">
-        <v>-7.8866935168505181</v>
+        <v>-9.133361955871802</v>
       </c>
       <c r="V2">
-        <v>-7.86429920340266</v>
+        <v>-9.7728055990762392</v>
       </c>
       <c r="W2">
-        <v>-8.2462857957348827</v>
+        <v>-10.436732834687852</v>
       </c>
       <c r="X2">
-        <v>-7.7048271843325704</v>
+        <v>-8.753508474455959</v>
       </c>
       <c r="Y2">
-        <v>-8.7381773865475676</v>
+        <v>-9.7541738911933393</v>
       </c>
       <c r="Z2">
-        <v>-7.3388947966742482</v>
+        <v>-9.4378113612208416</v>
       </c>
       <c r="AA2">
-        <v>-8.0526805559421106</v>
+        <v>-10.180601736239456</v>
       </c>
       <c r="AB2">
-        <v>-12.173367771768945</v>
+        <v>-8.1165311081515377</v>
       </c>
       <c r="AC2">
-        <v>-8.2889673440528266</v>
+        <v>-9.6495230796199447</v>
       </c>
       <c r="AD2">
-        <v>-12.398800368111779</v>
+        <v>-8.8645152576750519</v>
       </c>
       <c r="AE2">
-        <v>-10.160965039623134</v>
+        <v>-9.995974961048999</v>
       </c>
       <c r="AF2">
-        <v>-7.6871147589545439</v>
+        <v>-10.094060120692248</v>
       </c>
       <c r="AG2">
-        <v>-10.341966154007562</v>
+        <v>-9.2379720816000432</v>
       </c>
       <c r="AH2">
-        <v>-8.3938911601397628</v>
+        <v>-8.2501829986555961</v>
       </c>
       <c r="AI2">
-        <v>-9.0324137738597958</v>
+        <v>-9.0289571211556492</v>
       </c>
       <c r="AJ2">
-        <v>-9.2798933906241512</v>
+        <v>-9.1988284431567475</v>
       </c>
       <c r="AK2">
-        <v>-8.6729565639070323</v>
+        <v>-9.2736035670958259</v>
       </c>
       <c r="AL2">
-        <v>-9.5339057312027542</v>
+        <v>-8.3229492056316214</v>
       </c>
       <c r="AM2">
-        <v>-8.9920694058083761</v>
+        <v>-9.8574434841059979</v>
       </c>
       <c r="AN2">
-        <v>-9.1098366066006502</v>
+        <v>-9.6547145849981639</v>
       </c>
       <c r="AO2">
-        <v>-9.0368600430538883</v>
+        <v>-8.029917731635722</v>
       </c>
       <c r="AP2">
-        <v>-8.1116117047771699</v>
+        <v>-10.596126891147327</v>
       </c>
       <c r="AQ2">
-        <v>-10.337057782278997</v>
+        <v>-8.1604288514087866</v>
       </c>
       <c r="AR2">
-        <v>-11.355347243055995</v>
+        <v>-10.350263616544286</v>
       </c>
       <c r="AS2">
-        <v>-7.6393023728310521</v>
+        <v>-8.0986610113196829</v>
       </c>
       <c r="AT2">
-        <v>-8.3253741979201692</v>
+        <v>-9.9086546624840945</v>
       </c>
       <c r="AU2">
-        <v>-8.4571943040885582</v>
+        <v>-9.7972041805113452</v>
       </c>
       <c r="AV2">
-        <v>-8.1886734258680907</v>
+        <v>-10.037275623850324</v>
       </c>
       <c r="AW2">
-        <v>-12.26275600477803</v>
+        <v>-8.8503351355744169</v>
       </c>
       <c r="AX2">
-        <v>-9.3329845321471243</v>
+        <v>-9.167489836689704</v>
       </c>
       <c r="AY2">
-        <v>-10.570001664877536</v>
+        <v>-9.2728689588426043</v>
       </c>
       <c r="AZ2">
-        <v>-8.4194209921715437</v>
+        <v>-8.5681366453348691</v>
       </c>
       <c r="BA2">
-        <v>-8.1489828583714594</v>
+        <v>-8.7218519386104685</v>
       </c>
       <c r="BB2">
-        <v>-9.6333681823258051</v>
+        <v>-8.8026611099458272</v>
       </c>
       <c r="BC2">
-        <v>-12.928172313343241</v>
+        <v>-8.8548762251210729</v>
       </c>
       <c r="BD2">
-        <v>-10.797533579415967</v>
+        <v>-10.816848161353143</v>
       </c>
       <c r="BE2">
-        <v>-8.730956594258096</v>
+        <v>-9.8669173305899314</v>
       </c>
       <c r="BF2">
-        <v>-8.8567925470474975</v>
+        <v>-9.0597331927181681</v>
       </c>
       <c r="BG2">
-        <v>-7.5779634683864554</v>
+        <v>-9.7639408290544161</v>
       </c>
       <c r="BH2">
-        <v>-13.270663474750124</v>
+        <v>-9.218080981040778</v>
       </c>
       <c r="BI2">
-        <v>-7.7559330593191227</v>
+        <v>-10.443819208680637</v>
       </c>
       <c r="BJ2">
-        <v>-7.9517277047454904</v>
+        <v>-9.9793062038390428</v>
       </c>
       <c r="BK2">
-        <v>-10.334467370063306</v>
+        <v>-9.3392088363322259</v>
       </c>
       <c r="BL2">
-        <v>-7.5712210764763324</v>
+        <v>-8.1639302376152685</v>
       </c>
       <c r="BM2">
-        <v>-11.564831785916507</v>
+        <v>-10.781290801260587</v>
       </c>
       <c r="BN2">
-        <v>-7.5319127144974987</v>
+        <v>-8.90079494907941</v>
       </c>
       <c r="BO2">
-        <v>-7.8430906147727848</v>
+        <v>-10.337108694694942</v>
       </c>
       <c r="BP2">
-        <v>-9.6281259732488245</v>
+        <v>-9.256149932387979</v>
       </c>
       <c r="BQ2">
-        <v>-7.7437769162531502</v>
+        <v>-9.5487375617409924</v>
       </c>
       <c r="BR2">
-        <v>-10.143728032285726</v>
+        <v>-10.088973564715179</v>
       </c>
       <c r="BS2">
-        <v>-7.5877485413337435</v>
+        <v>-9.7031082622422371</v>
       </c>
       <c r="BT2">
-        <v>-8.0195016720958865</v>
+        <v>-8.8242735935496874</v>
       </c>
       <c r="BU2">
-        <v>-6.695645773734908</v>
+        <v>-9.2191023451032148</v>
       </c>
       <c r="BV2">
-        <v>-8.7639491167189263</v>
+        <v>-9.4288917404963009</v>
       </c>
       <c r="BW2">
-        <v>-9.7756517839565422</v>
+        <v>-9.7738719254692619</v>
       </c>
       <c r="BX2">
-        <v>-9.2357781503405629</v>
+        <v>-9.7222831780433587</v>
       </c>
       <c r="BY2">
-        <v>-8.2898907102009094</v>
+        <v>-10.136380931946467</v>
       </c>
       <c r="BZ2">
-        <v>-8.0790943045891819</v>
+        <v>-9.6105933839906843</v>
       </c>
       <c r="CA2">
-        <v>-12.092473449857044</v>
+        <v>-9.0818170086568859</v>
       </c>
       <c r="CB2">
-        <v>-7.6109915560507471</v>
+        <v>-9.2730980695291656</v>
       </c>
       <c r="CC2">
-        <v>-7.4410328637207108</v>
+        <v>-10.034172869022926</v>
       </c>
       <c r="CD2">
-        <v>-16.236831111664749</v>
+        <v>-10.277498960439873</v>
       </c>
       <c r="CE2">
-        <v>-7.3160221061232606</v>
+        <v>-9.3455019389072245</v>
       </c>
       <c r="CF2">
-        <v>-7.4337192166621699</v>
+        <v>-9.8192195920025398</v>
       </c>
       <c r="CG2">
-        <v>-7.9062300112024184</v>
+        <v>-8.2845526412859378</v>
       </c>
       <c r="CH2">
-        <v>-8.2521370556780909</v>
+        <v>-10.145895268099338</v>
       </c>
       <c r="CI2">
-        <v>-12.102817010451753</v>
+        <v>-9.6461628992699087</v>
       </c>
       <c r="CJ2">
-        <v>-14.239173559716194</v>
+        <v>-9.2462739182545786</v>
       </c>
       <c r="CK2">
-        <v>-8.629129534454016</v>
+        <v>-8.7389005787456107</v>
       </c>
       <c r="CL2">
-        <v>-9.1875184109107977</v>
+        <v>-11.033454098294166</v>
       </c>
       <c r="CM2">
-        <v>-9.1018369547112208</v>
+        <v>-9.9934508259496102</v>
       </c>
       <c r="CN2">
-        <v>-7.80400145025295</v>
+        <v>-9.1853986339725324</v>
       </c>
       <c r="CO2">
-        <v>-11.319324821199917</v>
+        <v>-9.9721081823372675</v>
       </c>
       <c r="CP2">
-        <v>-8.3246287807546953</v>
+        <v>-9.5639225217822617</v>
       </c>
       <c r="CQ2">
-        <v>-7.5742574060898793</v>
+        <v>-11.288060625384489</v>
       </c>
       <c r="CR2">
-        <v>-9.1641568269430458</v>
+        <v>-9.8844947444568305</v>
       </c>
       <c r="CS2">
-        <v>-8.0256967701764257</v>
+        <v>-10.424383423201141</v>
       </c>
       <c r="CT2">
-        <v>-7.7188132083926551</v>
+        <v>-8.0997408926000478</v>
       </c>
       <c r="CU2">
-        <v>-11.732681854748863</v>
+        <v>-9.9360044316868432</v>
       </c>
       <c r="CV2">
-        <v>-8.6795576212226653</v>
+        <v>-9.8806967511325965</v>
       </c>
     </row>
   </sheetData>
